--- a/bots/crawl_ch/output/bread_coop_2023-03-07.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O392"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>4.5</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
         <v>4.5</v>
@@ -1573,7 +1573,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
         <v>4.5</v>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
         <v>4.5</v>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
         <v>4.5</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
         <v>4.5</v>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
         <v>4.5</v>
@@ -3504,7 +3504,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E45" t="n">
         <v>4.5</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E47" t="n">
         <v>4.5</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3865,7 +3865,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" t="n">
         <v>4.5</v>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E52" t="n">
         <v>4.5</v>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
         <v>4.5</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" t="n">
         <v>4.5</v>
@@ -4652,7 +4652,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4863,7 +4863,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E64" t="n">
         <v>4.5</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E65" t="n">
         <v>4.5</v>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="n">
         <v>4.5</v>
@@ -5439,7 +5439,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E74" t="n">
         <v>3.5</v>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E83" t="n">
         <v>4.5</v>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6871,7 +6871,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7314,10 +7314,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E101" t="n">
         <v>4.5</v>
@@ -7650,7 +7650,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E104" t="n">
         <v>3.5</v>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
         <v>4.5</v>
@@ -8299,7 +8299,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E112" t="n">
         <v>4.5</v>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8458,10 +8458,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E117" t="n">
         <v>4.5</v>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119" t="n">
         <v>4.5</v>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E123" t="n">
         <v>4.5</v>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9590,7 +9590,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129" t="n">
         <v>4.5</v>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E133" t="n">
         <v>4.5</v>
@@ -9914,7 +9914,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E134" t="n">
         <v>4.5</v>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E143" t="n">
         <v>4.5</v>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10770,7 +10770,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11148,7 +11148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E151" t="n">
         <v>4.5</v>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E154" t="n">
         <v>4.5</v>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E155" t="n">
         <v>4.5</v>
@@ -11476,7 +11476,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E168" t="n">
         <v>4.5</v>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13343,7 +13343,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13773,10 +13773,10 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E188" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15456,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15834,7 +15834,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E217" t="n">
         <v>3.5</v>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16045,7 +16045,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16114,7 +16114,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16816,10 +16816,10 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E233" t="n">
         <v>4.5</v>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17428,7 +17428,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18142,7 +18142,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18284,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18447,7 +18447,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E254" t="n">
         <v>4.5</v>
@@ -18495,7 +18495,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18564,7 +18564,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -18994,7 +18994,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19420,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19487,7 +19487,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19554,7 +19554,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19627,7 +19627,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19859,7 +19859,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E274" t="n">
         <v>4.5</v>
@@ -19907,7 +19907,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -19976,7 +19976,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20252,7 +20252,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20394,7 +20394,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20463,7 +20463,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20536,7 +20536,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20605,7 +20605,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20674,7 +20674,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20747,7 +20747,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21238,7 +21238,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E294" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22356,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22492,7 +22492,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22561,7 +22561,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22630,7 +22630,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22770,7 +22770,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22912,7 +22912,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23054,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23196,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23265,7 +23265,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23359,7 +23359,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23407,7 +23407,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23476,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23754,7 +23754,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -23963,7 +23963,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24178,7 +24178,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24318,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -24460,45 +24460,45 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E340" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24508,7 +24508,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24518,60 +24518,56 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E341" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24581,7 +24577,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24591,56 +24587,56 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E342" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24650,7 +24646,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24660,56 +24656,56 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E343" t="n">
         <v>3.5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24719,7 +24715,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24729,56 +24725,54 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>4080979</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Bauli La Colomba</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-la-colomba/p/4080979</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
       <c r="E344" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24788,7 +24782,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24798,54 +24792,56 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Bauli La Colomba 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>4080979</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Bauli La Colomba</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-la-colomba/p/4080979</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24855,7 +24851,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24865,56 +24861,56 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Bauli La Colomba 7.95 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E346" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24924,7 +24920,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24939,51 +24935,55 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E347" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -24993,7 +24993,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25008,55 +25008,49 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6539826</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6539826</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25066,7 +25060,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25076,40 +25070,42 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Butterzopf 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>6539826</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6539826</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -25118,12 +25114,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25133,7 +25129,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25143,56 +25139,56 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Butterzopf 3.90 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25202,7 +25198,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25212,35 +25208,35 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -25251,17 +25247,17 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25271,7 +25267,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25281,56 +25277,56 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Country Cracker Nature 30% ab 2 Aktion 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25340,7 +25336,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25350,56 +25346,56 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 30% ab 2 Aktion 3.45 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E353" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25409,7 +25405,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25419,43 +25415,43 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
+          <t>Country Cracker Honig 30% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D354" t="n">
+        <v>15</v>
+      </c>
+      <c r="E354" t="n">
         <v>3</v>
       </c>
-      <c r="E354" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -25463,12 +25459,12 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25478,7 +25474,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25488,56 +25484,56 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 30% ab 2 Aktion 3.60 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E355" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25547,7 +25543,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25562,51 +25558,53 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr"/>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6540261</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
-        </is>
-      </c>
-      <c r="D356" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6540261</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
       <c r="E356" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25616,7 +25614,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25626,58 +25624,56 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Butterzopf 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6540261</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6540261</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>3</v>
+      </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25687,7 +25683,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25697,56 +25693,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Butterzopf 2.70 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E358" t="n">
         <v>3.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25756,7 +25752,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25766,56 +25762,60 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N358" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E359" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25835,43 +25835,39 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Sesam 30% ab 2 Aktion 3.45 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>7031407</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-dinkel-pizzateig-rechteckig/p/7031407</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -25883,12 +25879,12 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25898,7 +25894,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25908,40 +25904,46 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 30% ab 2 Aktion 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>7031407</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-dinkel-pizzateig-rechteckig/p/7031407</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>4</v>
+      </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -25950,12 +25952,12 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25965,7 +25967,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25975,60 +25977,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Banane-Choco 30% ab 2 Aktion 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E362" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26038,7 +26036,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26048,56 +26046,56 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 30% ab 2 Aktion 3.75 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6828661</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Birnenweggli</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26107,7 +26105,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26117,42 +26115,42 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Birnenweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6828661</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Birnenweggli</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/birnenweggli/p/6828661</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D364" t="n">
         <v>2</v>
       </c>
       <c r="E364" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -26161,12 +26159,12 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26176,7 +26174,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26186,56 +26184,56 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Birnenweggli 4.95 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 30% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26245,7 +26243,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26255,56 +26253,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 30% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E366" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26314,7 +26316,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26324,39 +26326,35 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 30% ab 2 Aktion 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -26367,17 +26365,17 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26387,7 +26385,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26397,56 +26395,58 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 30% ab 2 Aktion 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
-        </is>
-      </c>
-      <c r="D368" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26466,58 +26466,56 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26527,7 +26525,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26537,56 +26535,54 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>7068603</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/7068603</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>0.71/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26596,7 +26592,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26606,18 +26602,18 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+          <t>Butterzopf 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -26690,7 +26686,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -26763,7 +26759,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -26830,7 +26826,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -26899,7 +26895,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -26968,7 +26964,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27035,7 +27031,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27102,7 +27098,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27171,7 +27167,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27240,7 +27236,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27313,7 +27309,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27382,7 +27378,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27449,7 +27445,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27518,7 +27514,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27587,7 +27583,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27654,7 +27650,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27721,7 +27717,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27788,7 +27784,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27861,7 +27857,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
@@ -27930,24 +27926,24 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6585720</t>
+          <t>6677401</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Pasquier Beignet chocolat</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-beignet-chocolat/p/6585720</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677401</t>
         </is>
       </c>
       <c r="D390" t="inlineStr"/>
@@ -27956,17 +27952,17 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.46/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -27976,7 +27972,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27991,30 +27987,30 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Pasquier Beignet chocolat 50% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Ostertaube 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6680519</t>
+          <t>6585720</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Pasquier Gâche tranchée</t>
+          <t>Pasquier Beignet chocolat</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-gache-tranchee/p/6680519</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-beignet-chocolat/p/6585720</t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
@@ -28028,12 +28024,12 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.10/100g</t>
+          <t>1.46/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28043,7 +28039,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28058,30 +28054,30 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Pasquier Gâche tranchée 50% ab 2 Aktion 5.50 Schweizer Franken</t>
+          <t>Pasquier Beignet chocolat 50% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>5849793</t>
+          <t>6680519</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Pasquier Tresse nature</t>
+          <t>Pasquier Gâche tranchée</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-tresse-nature/p/5849793</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-gache-tranchee/p/6680519</t>
         </is>
       </c>
       <c r="D392" t="inlineStr"/>
@@ -28095,12 +28091,12 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.10/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28110,7 +28106,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28125,13 +28121,80 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Pasquier Tresse nature 50% ab 2 Aktion 6.20 Schweizer Franken</t>
+          <t>Pasquier Gâche tranchée 50% ab 2 Aktion 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-07 06:49:33</t>
+          <t>2023-03-07 12:57:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>5849793</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Pasquier Tresse nature</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-tresse-nature/p/5849793</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Pasquier</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>0.98/100g</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>Pasquier Tresse nature 50% ab 2 Aktion 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr"/>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>2023-03-07 12:57:34</t>
         </is>
       </c>
     </row>
